--- a/data/trans_orig/Q21A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Clase-trans_orig.xlsx
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,79</t>
+          <t>1,44; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,46</t>
+          <t>1,31; 2,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,17</t>
+          <t>1,47; 2,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,48</t>
+          <t>1,46; 2,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,29</t>
+          <t>1,6; 2,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,53</t>
+          <t>1,53; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,09</t>
+          <t>1,52; 2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,84</t>
+          <t>1,31; 1,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,22</t>
+          <t>1,6; 2,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,81</t>
+          <t>1,5; 2,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,99</t>
+          <t>1,55; 2,02</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,59</t>
+          <t>1,18; 1,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,18</t>
+          <t>1,43; 4,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,27</t>
+          <t>1,4; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,25</t>
+          <t>1,43; 2,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,33</t>
+          <t>1,65; 3,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,51</t>
+          <t>1,65; 3,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,4</t>
+          <t>1,81; 3,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,85</t>
+          <t>1,37; 1,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,19</t>
+          <t>1,69; 3,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,83</t>
+          <t>1,57; 2,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,77</t>
+          <t>1,71; 2,77</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,44</t>
+          <t>1,21; 1,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,09</t>
+          <t>1,5; 2,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,03</t>
+          <t>1,44; 2,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,04</t>
+          <t>1,39; 2,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,44</t>
+          <t>1,51; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,14</t>
+          <t>1,34; 2,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,01</t>
+          <t>1,46; 2,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 1,96</t>
+          <t>1,49; 1,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,02</t>
+          <t>1,47; 1,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,39</t>
+          <t>1,49; 2,57</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1149,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,28</t>
+          <t>1,54; 2,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 1,98</t>
+          <t>1,48; 2,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,31</t>
+          <t>1,51; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,06</t>
+          <t>1,54; 2,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,34</t>
+          <t>1,73; 2,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,43</t>
+          <t>1,71; 2,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 13,1</t>
+          <t>1,97; 13,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,68</t>
+          <t>1,42; 1,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,12</t>
+          <t>1,69; 2,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,1</t>
+          <t>1,64; 2,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 11,22</t>
+          <t>1,9; 11,65</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,23</t>
+          <t>1,42; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,0</t>
+          <t>1,33; 2,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,25</t>
+          <t>1,47; 2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,76</t>
+          <t>1,5; 2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,08</t>
+          <t>1,48; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,43</t>
+          <t>1,79; 2,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,25</t>
+          <t>1,72; 2,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,1</t>
+          <t>1,75; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,12</t>
+          <t>1,51; 2,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,18</t>
+          <t>1,7; 2,18</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,12</t>
+          <t>1,69; 2,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,2</t>
+          <t>1,74; 2,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,47</t>
+          <t>1,13; 1,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,57</t>
+          <t>1,15; 1,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,52</t>
+          <t>1,14; 1,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,18</t>
+          <t>1,13; 2,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 1,98</t>
+          <t>1,59; 1,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 1,88</t>
+          <t>1,58; 1,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,85</t>
+          <t>1,55; 1,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,18</t>
+          <t>1,51; 2,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,91</t>
+          <t>1,55; 1,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,82</t>
+          <t>1,54; 1,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 1,72</t>
+          <t>1,46; 1,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,07</t>
+          <t>1,48; 2,01</t>
         </is>
       </c>
     </row>
@@ -1564,27 +1564,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,47</t>
+          <t>1,29; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,97</t>
+          <t>1,59; 1,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,81</t>
+          <t>1,5; 1,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,13</t>
+          <t>1,61; 2,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 1,87</t>
+          <t>1,62; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,17 +1594,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,09</t>
+          <t>1,76; 2,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 9,35</t>
+          <t>1,87; 9,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,68</t>
+          <t>1,52; 1,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,1</t>
+          <t>1,82; 7,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q21A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
